--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/76_Urfa_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/76_Urfa_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4446FB98-6385-4FE5-A694-C494EF230853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B54992C-0C62-4E2D-B2B2-6E4B90140144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{EF5C3EE7-2364-44B8-B165-8472E228EFCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{EF00FFF4-B3E4-4DD4-B28E-D5EF2710790A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -980,14 +980,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{174A8DBE-A8AE-4C7E-A633-25499072C3F5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F9FE08A1-6B6F-4E5C-8091-6E80885E23EB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6982D5B1-2AE4-419A-9B19-7EA98A3D51C9}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{EA46C0A5-16DC-4A4E-9FF3-7835053F3565}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2BF6890F-2428-4FF3-9B31-444C8E4567EC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F6FAFBFC-119F-41D2-94A8-8165D8616B2C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{842EC9C2-90EB-4441-B6EB-0448A2ED4F6F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{EE8FC639-4746-47E4-8AF2-F29BEF1046A0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8D0A0717-F039-4281-B8CF-80B2DB5B9B75}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A5C23C51-6CF7-42C0-9D2C-E40565CF5AB6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4A154AF4-5970-438A-A61F-5AF816D178CD}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{84C1FE71-ABA4-4880-9AD2-BC82C6B023C8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{02ADAD3D-BEB5-45B0-B519-C2965AC11214}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8AEB023A-54FA-4074-9729-F68AAE4B53C8}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5584B030-7AF7-44C5-9D2A-B5FB66CF5A7F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2D830C9A-F44B-4CD4-BE42-AB3A37F7F94B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041ED81A-1FA3-48AD-AEBB-F02CB1F871D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04A034A-97E6-4BCF-9737-3D683F49CB2F}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2605,18 +2605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65268668-6353-49B7-B3E2-A0EDCA3BF719}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A552DAF-D961-4380-9263-E923141F4813}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D040881D-0CD4-476B-9E25-5831DE298342}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD842146-BED5-4869-A590-F12758218435}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{909E323F-5D03-446B-8797-7391A6A8BCE4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41170739-DA42-4F1B-8D57-07A65AD91AF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10276312-3C36-4758-9236-C862EC9EB07F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0699EAD2-E1CA-4790-9918-877249F791A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{335BE780-15E6-4963-A382-0AD8256A7319}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D1E1530-F299-4FBF-B841-F61531628EFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19991D47-28F4-4DAF-9837-88D41E006724}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43698D7E-8A06-43DC-BBE0-187289ADBEE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0398CCF4-80A1-43BE-BC03-FD9E89BF9DDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62BFC0B9-A1C8-4DA2-8DCE-E8696163B7B2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3183A874-7BE0-4887-96E8-562253D044E7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{924CC947-6B5D-4CDF-A8EE-560E59D1314B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A886A8A-A0CE-401B-9448-C93878B46CE7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{849A0EF8-E1ED-4962-81DC-18CB3431952E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0F26056-CB1C-4825-BA04-0E27786F955A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9552B8D8-3548-485E-8316-0EF5B8203933}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E2B8583-8C70-4463-93EF-A72C542B742D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7ABF4AE6-2556-4A93-98DA-0778825995BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D42E5E71-00C1-455C-9B0A-C562B31A229B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4165309-B5A7-4709-B0B7-C77ACEA86569}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DB7C3D-824D-4C07-AF4C-43333587CAC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855A9EF8-FCBE-4DB9-97C2-892541CEAB04}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3869,18 +3869,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2E09759-4580-4765-BF40-C2124AD97359}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41A6C845-9248-4E06-91CE-69EAB07A6B4B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0D1D797-0E90-4AE3-B9C1-4DF628810140}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A06AB1E-59C5-4183-8AFC-77C615ADCFCF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B556BE23-0F3A-4A4E-AE9D-62C5FC789E94}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6BBCEDAE-49C8-473A-8A60-A961DCC96EDB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66A3B9A0-9394-49A2-9BEA-F5108547E729}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D90F3DB5-FF7F-4A81-88E9-40407ADD5A91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD4585C7-896E-4B08-A4FD-0EDC5B029B45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{524610C1-9427-45D1-9438-8F51B67E7F15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4BDC87D-D603-40B8-81B8-A2FE7F55A468}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81AB63AC-977B-4AF9-9857-86FD24BDF91C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95D254F5-FD9F-49C0-9B58-14670DFC26B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5447554-2834-4240-AA98-C2D67974E7C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93909D41-A74D-4EE2-AAAD-044BEF8F3412}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC40A2B3-3DDB-4C1A-964E-63A45C3470BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03ACBD5E-C4DF-4AA4-9D6C-BC3A253BECF3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1FE8DFB3-EFA5-48D2-A107-DDD87E65EAAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97D5A5A1-4701-4391-B2A3-6FC663EC597A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{047FA462-E24E-4AEC-BA58-1D576AF68A80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2B72187-4083-4070-B2CE-79E22A0BB1A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A5CAEA5-E35A-404F-9198-F31DEE81A43D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2971BF42-208F-441B-AA5A-6E8F3B5962F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4603FA56-EE5B-4E0A-A553-82A3A6F63F64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969BE5B5-A06E-44F7-ABBC-C0102C32E844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A11E8B-72F1-4467-8FB7-24A57BF9259E}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5129,18 +5129,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EECAB5BD-8D8D-4212-9F9A-FEAA353068B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCC27ED9-934E-4699-AECD-425C344FCA7D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A939F3D-381F-4DA4-A57C-1B450D3DB554}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABAC8B5D-3E58-43D7-8E62-314619AC8AB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63C96F1C-BE8C-4F4A-9F4D-7235D064486A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BF549D4-A4C7-4053-95DF-8626C7C36352}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{993C3ED4-2973-459B-8E46-5B666617E42D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4F69507-8499-4D07-8FF3-C90A5BAAD8C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{438D9C52-7BC5-404A-9095-E4783FD1F35F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FFA9CA0-F72B-497D-9C8E-5B47D96643BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4848BF87-60E4-489B-95F2-5B05747C8364}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C807FF9-33E0-4B84-8C29-E530997AA6C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE4CC24B-6D37-4A8C-9782-B0D8F1B282C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEB6BE6D-DE9A-4267-A91A-E86F7865FF90}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06378160-56BC-4F22-B79E-AD71CCC21691}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CCF6493-B129-4544-BE0B-C917FCAB281C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1699512-EA05-4ADA-AEE4-BBD3AE658329}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{260EA4AD-5155-4610-97B0-CC43FC08548B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A9E4F1E-DA0C-43F6-9B9B-DC073FD56EB3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F2ACB47-E535-4BED-BB81-03BBF824B8D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E961146F-264A-4B43-853C-C01C80D44C9C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52F78DF0-BE94-45FF-A169-4A9947FC7807}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25839794-1CD4-43B9-9224-296E455CFC84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8DA488E-B490-4036-862F-C84C4C1FC7E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5153,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6BA04-0B4B-4452-A560-C11EE62F5BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE49DCF-3188-449B-86B7-9ABC42D4928F}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6389,18 +6389,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46942874-3BA1-4793-B6E4-A84788136238}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0F7D099-AE67-42BB-9691-C52A15DC05CE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03495169-7C93-4318-86F5-EE6ED11460D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91F8FB47-E3ED-4042-ACBE-5444D5E1DA57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7533752C-2F9F-4A55-B239-AD79DE61D794}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2082F081-FFF6-4BA1-B960-2AC98CD46318}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA673A2A-A5DF-4784-B045-1BD2CEA6279B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{144F77CF-48CF-4A33-9B54-81AA1CCDD729}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{153763A3-DB51-46A2-8E03-EB936AA5C0ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7074B6CE-31BB-4E51-ABE2-DDB2D91935D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E55F0D5-92F6-4836-B5A6-A8749C91EB8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0E1CAAB-BE29-49C1-9B22-19B7B2B3DC72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FAF1D36-FC3D-4AFF-850C-E918A6A3BA27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA6547DE-9D1E-4D45-9F46-2EA43156C730}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E825FFC-3F69-480C-99EC-E775F768B992}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0CA549F-2FE9-4968-8F58-2C8DA3CD61BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95A4609C-7696-4F14-8537-3ACC55326B0F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CFB26FE-9E92-4A59-BD44-758BAFE14C8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55826E10-CA24-4B0F-9FF8-C5F16DD7E001}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5F2010D-D5A2-4596-8F81-13B952A0ECE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE4157B4-2AC3-4C79-A3D6-B2A4EC16534E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF984C8B-D6DD-40D9-8BBC-1D909FFB1DBC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9C37C92-4C22-415E-A981-B7B94E7F398D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{719553F4-E774-4AF6-934C-13C98F7387DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6413,7 +6413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A289697C-FB55-4DEB-B8FA-6E8C63BF4819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AD7112-6513-4422-BB19-D4122A735A21}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7663,18 +7663,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15AF70E6-EC4B-4731-8EA6-B6985A15FEEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A30DC750-8A57-4208-A2A4-C5F3FFDFC7BA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7306669E-81FA-4135-BAC0-0EADD781D139}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1293411-BF18-407F-BCD5-BDC79040BAEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCD03558-4170-4004-A548-70B2FBFADA74}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3CE10BDA-FCDD-4A17-8DF0-265672037F28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A950E802-CEDA-4896-8E9B-4762D3BD1BC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{503F8D57-9031-48D9-BA01-A12CD945F2D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E085E485-928D-49B3-A2EC-1D95553AE626}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3173F0E-14A3-4E2F-BCBA-ABB896F8208B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C1C96EC-BB05-4549-8584-F9985FCD50B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED552C83-9CD1-4EFD-808D-EBE639E69133}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{310B4F9D-B27D-4E5A-865D-023FA53180CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39BFFF86-6DBD-4B53-B27D-CC6E0471C9A1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85B313B8-5D03-4004-B306-D71BF7B98CC8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D980DE41-21C3-4547-9192-9697612036BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC5B9D1C-359F-485F-BB17-AB209E613C03}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AFB8408A-FF02-4C98-A427-4A39CF2467C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31149C6F-45CB-4750-B2A8-A6280877C92C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DF89E79-973E-4C25-9B5B-B57AE9A615DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10E8D713-5091-4CB6-9854-FA158CB59D52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F09A26BF-3E21-4AE8-B22B-AAAAB2AFB786}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75FD7C6F-6FB3-4A93-A85A-81A724B757AC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{586BE909-B0BB-4362-8F16-EE1B868E23B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7687,7 +7687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF1F884-7C61-43DA-AB51-FD2D3226157D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BDFB8-E107-4F0C-9B55-C417AE6734E7}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8937,18 +8937,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF73DF15-9E0C-48B6-994E-E10A59D88699}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BC2858E-A82F-453F-89D7-0DB198123C16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A92899E4-7347-412A-9E47-BA44A9B7CF4A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{242DC998-66AA-4A2A-A635-307025CA51FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B715667-CB8E-4A64-9E47-089BFB18CE6F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FBC7F43C-82E9-4657-AE06-C553303F99AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C6B0037-E6DA-4B87-915F-C4BBB379877C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E077A89-3C3B-407B-A549-1473FA4E1448}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{882E249D-A15B-4EB9-B5FB-97451674352B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D20D1C2-D147-4428-8100-7F1A7F7B44F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1D3825E-65ED-47FA-BF06-03D38AA3061F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBA199BA-1594-4372-AA7A-F260144822F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B9DDEF8-F164-43B7-BC60-5CC819104DFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8563840C-98F0-4310-B06D-D7F41BD90DC2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{57ACCD6D-D718-4AAA-9F90-8AD6DC892790}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1C1DB31-1A0D-4BB1-9D0F-994D3448B162}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C7BD641-3C30-4E5D-9EB9-C99EBBF4885D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4B16C955-10A8-4C57-9BAF-083FF59769BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B84B5F2-BEAD-46A8-9FF8-D0FF64F04D9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28320714-5BDE-427E-9424-CB98053843E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABEA550C-644B-49D0-B73B-DADB7A46E62A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1EE1BB46-A8B6-4411-B174-F023DF5CA317}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3940166E-CE74-4450-99F2-4CE803A905E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA9FD7AB-6CCF-4A7D-A425-CE50D0517B3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8961,7 +8961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7686D09-7E71-4D71-A24C-5BD96691DD5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBADA83-834D-44B8-9510-56CB4A4750B1}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10211,18 +10211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EAD1564-16D5-41A5-99D6-3E8D0054F3D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41C32A48-4F40-43EA-8FF3-33A74AD608E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{956387A9-9BED-4C37-B253-CBFF7004B50C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9C2FAF1-36A6-4B6D-9DD3-E2136323714A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9F0874C-EFAB-4703-93F0-3871A631B9F7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4708C0BF-F597-4DB3-846D-F790B516B7CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2321DA22-5504-4374-B6A9-80457D4C1C6F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0480EA48-33A8-442A-9030-DC28834F5B11}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24266E18-56BA-4CCE-9631-D4B8E4534271}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31CEBB31-09FC-46B6-8A04-39F615274297}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD44B9CB-DCF9-4A94-9A75-83EA9852487A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D442B4B0-8444-47B5-A93B-F27CB067C700}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F4E060F-DCBE-4719-95CA-ACCB0A7F6D76}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9642938B-F184-468B-B26D-3515412706CE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDDB2435-2D55-4342-8774-4E4E8834C82E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{55118D54-0EC0-408C-BFAF-703311A93E51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66805BA3-3ADD-4B00-88CA-DC2E53CD96CE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F51562BF-9278-4FCD-BCC3-36FB5EB7D8EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE43B148-C582-431C-89A8-151A7FD26A23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F07D0968-88E3-4CA6-ABED-CA8BBF384294}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F7D14D4-64E1-4ED4-BF7E-BE64CEE56297}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2395D809-F195-4E75-97CF-18B14AD1E46C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2B206C8-657E-49A0-9477-66F71FCC9E7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3368CAF4-4B0B-4C35-B818-269274C87D3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10235,7 +10235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB796DA8-0F19-4D0C-9E59-2FA389CEF43F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989BF0D7-D3D4-4E4D-BB30-DEAE091636D2}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11481,18 +11481,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B57D814E-CCC2-44C9-82F2-B8A508F1A9FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78FBDEF6-DB5A-40D2-8946-7A1FFF843AAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1B6BA96-A131-4FB3-842D-A4E11EB00079}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BDCFC74-1B61-4F59-880F-C0263D43D7CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7F56B64-30FF-4625-A9F3-B5E4541CDFC4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E74A9B5-DBC8-4FAC-9381-FBAF0C5DE4EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{427785C8-F022-4A90-8C1E-F032EB496A01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{487CE6D2-DCED-4B62-BFBE-844010C8E57D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6499E18F-A990-44EA-BCC1-93A7D7AF1F0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{381A4A50-8FB1-46B5-A012-2436E146ECE8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B20EB4CE-7D7D-481D-B6D3-F14583A6BA05}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8F19B13-3A75-4BDE-AEF2-A673D0380545}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89AFA199-09DD-49AC-8B7C-C0A94A513FE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42A7F2E8-4935-4614-8822-FE7052ECE033}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA1D6D9A-0A42-4103-BF97-DD856BA544F5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE83CC5D-F33A-4EE7-A9E2-B512698E2D18}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36E7802D-A317-471D-A671-2E0D521F9B94}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF7D3E4C-DDD8-4566-94BF-2A4D8A306D72}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B7F40A9-8BE3-4019-9062-79E7D614060B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42B867E5-68B9-4A99-9DF1-E54DEBA17255}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA1FCB8B-5F91-441D-A0A2-7147853F9A27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7692E42-6FC6-4C22-95BE-56094C51FF87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{366A65F7-6FC2-401B-BAB4-BE8A0BA22861}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AB4492E-9905-421F-BF3C-883E9939EF86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11505,7 +11505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCAC64-8E3E-4505-8A77-69B630611E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F4094-754F-4D50-874B-4A84886D08C1}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12751,18 +12751,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{290264E8-4E21-4E64-B871-4152E08250F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{446B0E08-FD42-462F-BAF7-FEFB00364541}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95C0CECD-EDE3-4897-B1E1-E9773A7E0DC1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0EC152D0-ACF3-4E1B-9F45-933790442B99}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CE4D437-01E3-47F3-9A3D-69A42D5DC3E5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4AA9D3A5-7EAC-408C-87EB-5CD8E9727CEC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FED621EA-8CD7-4034-AE67-009A22CAFE21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66F57051-71CE-4AA2-86A0-9383DACA22B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6715D74A-F142-44C6-944C-AD9D088F5120}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B474C9D-DEFF-4289-B08E-96C832536D71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41E28D01-A853-4A8A-A9AF-522450C3FFAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00949E80-CDA9-4AB8-9DF3-7CC804AC62D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4F355BD-D4D8-4E44-B3E1-EAB3FF872F0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE2B7E4F-F646-4324-B136-26A032F75778}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E421EE2-8F68-45CD-96A2-EAFB31ADB5E4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{52ECB61B-2298-48ED-9BF8-7510C993ED99}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A5ADEED-E228-49A6-B08D-C2D015E62F39}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AE7CE09-0B6A-46D9-950C-549139E2685F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28582422-1A6B-4319-BA14-57FAB789CF04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{609F6114-56F6-488E-A751-DCA796657452}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AE735AB-A841-4CCE-BDDB-EB2B663F733A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B21071DB-E2E1-449D-ACD3-DA6CA6C22892}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E438D8F0-5FC2-4143-8DB6-5A327EB6B363}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37B95719-61A3-4A52-B51B-2AAAF3829B96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12775,7 +12775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72937182-8A63-45DA-B326-0538587839EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24171BAE-78DA-403C-85E4-B0152CABAC64}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14021,18 +14021,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69B7D0CA-9410-4CF7-865C-F8D484FBD242}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3771A6F-838D-489C-91EA-DD93F58F82B4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F2B7627-DD6B-4A85-881E-830A82756B32}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{302B6BC0-5CCC-4E71-875F-727015692D13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDE8F658-E5AC-4B31-AD38-B92545E027DB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D466A15-73C3-4DC1-A0DC-0EE06F2ED00B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08AC5B18-C53E-4A8C-9D47-5B8C71AAED05}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FCEEA2E-FBED-47CE-A40A-FD28DCA32E44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B193876-77D2-4854-B738-090878F51EC5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDBC2720-0A5A-4068-B112-472CE44AE721}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02895598-ECB3-4BC5-A182-3AA212EFEED6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E93D53A-956A-45FD-A378-570B7FBD90E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E253F37-E5BD-4653-BE3B-D3AA663CA046}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86B168F8-40AA-4747-BCAF-1B1C4F7692A3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1838EB6-982F-47D5-A516-CD0F2C1F9E4C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{935545F3-81B3-402C-8EB3-FF15F45F5879}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77E50DE7-EE41-4264-87D4-314617F32846}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FAD5EAD5-817E-4936-8C4A-1F28CBB0C9EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A60BB8D3-F317-4F1E-ABC6-97A52F1DB5C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCAF466A-4FFD-4845-BBF0-D5D8E3965998}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9EC2A567-A40F-441C-83A5-B000111A0C8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC533FA7-2C36-4EFD-8B1F-BB41338491F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDFE5FD8-8A9F-4017-A9CF-12DCE7AED847}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F68BDD13-91A2-4FC6-9526-343F3D719152}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14045,7 +14045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFB8942-E777-4B03-8122-E6A5778493CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72447D98-37E1-4AA0-A1D1-385F634D869E}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15287,18 +15287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECF31AB8-CFE4-4F5F-A367-AD966F2E7D8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5436A9A-C8F4-4A45-8803-794650C88EF3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2049BE27-79DC-486C-BD16-18573A2570F5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{104346FD-0C6D-4EAD-A4AA-755D6CCCF5CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A778F9AB-DC4D-4B32-A349-888F594FA905}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80C6CA9E-FCC0-4621-802C-804455788B38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6704B99E-30DB-435D-AB3E-BFF0F2303AF4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DD11328-E843-4ED5-ACD8-226B3593D834}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF9D31C8-3CD1-43D6-891C-9B3E0088880E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D9F29B4B-9F66-4CE0-8646-4611893C8D94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41802548-F705-4380-AA36-21B9DB649348}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDA8C1CA-65D1-4A8E-99F4-9D569E573C0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB75E8F1-71FA-4F74-A73C-A63597053199}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43474B6A-FFA0-4002-8A12-DE1C5099383E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8A5CF02-751A-48A5-AAD3-AF0C86211B5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9CF52C49-56FF-4D81-846B-D57274B1D079}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDCB8475-D02F-4792-BC57-94520CF96500}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C281D8C-673F-4DFC-B5E0-3F781A5F6070}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25346B8A-D1A2-42BC-8EFE-23D9699F6452}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245C9313-67D9-4B3E-AF45-E8FFC4EC4575}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{897BBADE-BE87-466C-96BC-6541C2C1C983}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F417CD85-BF95-4A7A-9A50-515EE26A1773}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD2242C3-317E-4B04-BB06-A83B20D429D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96005F55-DECB-4242-9232-BCCB4BF09246}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15311,7 +15311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6EDC03-E857-41D6-A12C-F223D3206928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B429FB-BC1A-41FD-97B2-03AB4C6E3533}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16553,18 +16553,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5A1FD70-0254-4298-A4FD-E92035443DC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C74357C8-A944-4A4F-BE58-B331466CC2AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0BBA461E-9715-4056-83BE-A5ECF50934C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C07785C9-DA7E-4CF1-B62F-76C3509E877E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADEBCE83-A50B-4FF0-B18F-5C745836C261}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EA2621D9-EA5F-41F3-B873-83B2A54E814D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EAF84A4-7776-44F1-9008-F44DA0319DC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3F7AB37-14D6-48A2-90FB-B77D1A1B47F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0967954B-F16F-4539-ADBD-CE0A670668D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B2F863D-39D6-4040-8763-7B1FE776E0AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6BAE69C-300B-4A6B-B104-0E7B28F2E91B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE89954B-51FC-4AB3-831B-B849120A04F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F721802D-79B8-4330-B703-75EF82095422}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16E8349B-6772-497C-9D68-AD7F99EA7047}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F8F2939-310B-47DE-97CE-F8819B6480D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A42AF207-F9A1-4131-9E36-43284E87AD86}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58E1F9ED-6BA9-4A30-9E5D-D9345057D908}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05A671EB-05E0-40F3-9B7F-58F42C6AA98F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3815F54A-886F-4B7B-BE71-F8D8A3E4DD71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57DD1B65-0D87-4CA8-BECC-911921C301FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A6D60FF-F80D-44DD-9019-62CB249BA4F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0BBC67B-FF0B-4FA9-9FAB-D8E760B0C530}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C308B80C-E006-4EA6-9C37-90046223EF7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{730810AC-14BF-4A71-9A60-13B6294EB90A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
